--- a/src/app/(main)/issue_list/basic_info_b_problem/data/PBL2 科目B問題.xlsx
+++ b/src/app/(main)/issue_list/basic_info_b_problem/data/PBL2 科目B問題.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="nn8rbcW0mb+tfJ9drx8LwpS8ZUFOgxC4HrukMhHcRUI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="esQhiFwQdWbRsF/anb/Xn52xfJzQPBwH7olHzqBn434="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
   <si>
     <t>分野</t>
   </si>
@@ -33,16 +33,16 @@
     <t>プログラム文</t>
   </si>
   <si>
+    <t>回答群</t>
+  </si>
+  <si>
     <t>答え</t>
   </si>
   <si>
-    <t>回答群</t>
-  </si>
-  <si>
     <t>疑似言語基礎</t>
   </si>
   <si>
-    <t>問1</t>
+    <t>基本情報科目B基礎 問1</t>
   </si>
   <si>
     <t>次の記述中の a と b に入れる正しい答えの組合せを、回答群の中から選びなさい。関数 gradeEvaluation は、引数で与えられた inData を用いて成績評価を行い、その結果を返します。inData は 0 以上 100 以下の整数値です。関数 gradeEvaluation を gradeEvaluation(92) として呼び出すと、戻り値は "a"、gradeEvaluation(65) として呼び出すと、戻り値は "b" となる。</t>
@@ -60,13 +60,13 @@
   return eResult</t>
   </si>
   <si>
-    <t>イ</t>
-  </si>
-  <si>
-    <t>ア：a = 評価S, b = 評価A　　イ：a = 評価S, b = 評価B　　ウ：a = 評価A, b = 評価A　　エ：a = 評価A, b = 評価B</t>
-  </si>
-  <si>
-    <t>問2</t>
+    <t>ア a = 評価S, b = 評価A　　イ a = 評価S, b = 評価B　　ウ a = 評価A, b = 評価A　　エ a = 評価A, b = 評価B</t>
+  </si>
+  <si>
+    <t>a = 評価S, b = 評価B</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問2</t>
   </si>
   <si>
     <t>次の記述中の(a)に入れる正しい答えを、回答群の中から選べ。関数sum10は、10から引数で与えられた値までの総和を求める関数であるが、一部誤りがある。正しく動作させるためには(a)する必要がある。なお、関数sum10には、引数として、10よりも大きな整数値だけが渡されるものとする。</t>
@@ -81,13 +81,13 @@
 07　　return x</t>
   </si>
   <si>
-    <t>ア</t>
-  </si>
-  <si>
-    <t>ア:行番号02の宣言文を「x ← 0」に訂正　　イ:行番号04の制御記述を「i を 11 から num まで -1 ずつ増やす」に訂正　　ウ:行番号05の処理を「i ← i + x」に訂正　　エ:行番号07の処理を「return i」に変更</t>
-  </si>
-  <si>
-    <t>問3</t>
+    <t>ア 行番号02の宣言文を「x ← 0」に訂正　　イ 行番号04の制御記述を「i を 11 から num まで -1 ずつ増やす」に訂正　　ウ 行番号05の処理を「i ← i + x」に訂正　　エ 行番号07の処理を「return i」に変更</t>
+  </si>
+  <si>
+    <t>行番号02の宣言文を「x ← 0」に訂正</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問3</t>
   </si>
   <si>
     <t>次の記述中の (a) に入れる正しい答えを、回答群の中から選べ。ここで、配列の要素番号は 1 から始まる。関数 func は、非負の整数が格納された整数型の配列を引数にとり、ある処理を施した結果を返す。関数 func({12, 4, 10, 3, 25, 19, 6, 7, 5, 2}) として呼び出すと、戻り値は (a) となる。</t>
@@ -105,13 +105,10 @@
   return a</t>
   </si>
   <si>
-    <t>ケ</t>
-  </si>
-  <si>
     <t>ア 2　　イ 3　　ウ 4　　エ 5　　オ 6　　カ 7　　キ 10　　ク 19　　ケ 25</t>
   </si>
   <si>
-    <t>問4</t>
+    <t>基本情報科目B基礎 問4</t>
   </si>
   <si>
     <t>次のプログラム中の (a) と (b) に入れる正しい答えの組み合わせを、回答群の中から選べ。ここで、配列の要素番号は 1 から始まる。関数 conCat は、第1引数として文字型の配列 x を、第2引数として文字型の配列 y を受け取り、配列 x のデータの後ろに、配列 y のデータを連結した配列 z を返す関数である。配列 x および y の要素数は 1 以上である。</t>
@@ -134,7 +131,10 @@
     <t>ア z[k] ← x[k]  z[len_x + k] ← y[k]　　イ z[k] ← x[k]  z[len_y + k] ← y[k]　　ウ z[k] ← y[k]  z[len_x + k] ← x[k]　　エ z[k] ← y[k]  z[len_y + k] ← x[k]</t>
   </si>
   <si>
-    <t>問5</t>
+    <t>z[k] ← x[k]  z[len_x + k] ← y[k]</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問5</t>
   </si>
   <si>
     <t>次のプログラム中の □ に入れる正しい答えを、回答群の中から選びなさい。二つの □ には、同じ答えが入ります。ここで、配列の要素番号は 1から始まります。このプログラムは、整数型の配列 array の要素の並びを 逆順 にします。</t>
@@ -153,10 +153,13 @@
 endwhile</t>
   </si>
   <si>
-    <t>ア:array[left]　　イ:array[left + 1]　　ウ:array[left - 1]　　エ:array[tmp - left]</t>
-  </si>
-  <si>
-    <t>問6</t>
+    <t>ア array[left]　　イ array[left + 1]　　ウ array[left - 1]　　エ array[tmp - left]</t>
+  </si>
+  <si>
+    <t>array[left]</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問6</t>
   </si>
   <si>
     <t>次の記述中の □ に入れる正しい答えを、回答群の中から選びなさい。ここで、配列の要素番号は 1 から始まる。関数sumArrayをsumArray({4,7,10,2,12,8,6,3,9,5},{2,4,7,10})として呼び出したときの戻り値は □ です。なお、関数 sumArray が受け取る第2引数の配列の要素数は、第1引数の配列の要素数以下であり、また配列の領域外を参照するデータはないものとする。</t>
@@ -171,11 +174,10 @@
   return x</t>
   </si>
   <si>
-    <t xml:space="preserve">ア:18　　イ:22　　ウ:25　　エ:30　　オ:33
-</t>
-  </si>
-  <si>
-    <t>問7</t>
+    <t>ア 18　　イ 22　　ウ 25　　エ 30　　オ 33</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問7</t>
   </si>
   <si>
     <t>次のプログラム中の □ に入れる正しい答えを、回答群の中から選びなさい。ここで、配列の要素番号は 1から始まる。手続insertSortStepは、挿入ソートの途中処理を行う。整数型の引数 pos を受け取り、配列numsの nums[pos] を、すでに昇順に並んでいる nums[1]～nums[pos-1] の中に正しい位置へ挿入する。配列 nums の要素はすべて異なる整数であり、nums[1] は常に最小の値である。配列はグローバル（大域）変数である。</t>
@@ -192,14 +194,14 @@
 　nums[j + 1] ← temp</t>
   </si>
   <si>
-    <t>エ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ア:＝　　イ:≠　　ウ:＜　　エ:＞
+    <t xml:space="preserve">ア ＝　　イ ≠　　ウ ＜　　エ ＞
 </t>
   </si>
   <si>
-    <t>問8</t>
+    <t>＞</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問8</t>
   </si>
   <si>
     <t>次の記述中の □ に入れる正しい答えを、回答群の中から選びなさい。関数gcdは、2つの正の整数 a と b を受け取り、それらの最大公約数を返す。関数gcdをgcd(84,36)として呼び出したとき、αで示された繰り返しの判定は□回実行されて処理が終了する。</t>
@@ -218,11 +220,10 @@
 　return m</t>
   </si>
   <si>
-    <t xml:space="preserve">ア:4　　イ:5　　ウ:6　　エ:7
-</t>
-  </si>
-  <si>
-    <t>問9</t>
+    <t>ア 4　　イ 5　　ウ 6　　エ 7</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問9</t>
   </si>
   <si>
     <t>次のプログラム中の(a)と(b)に入れる正しい答えの組合せを、解答群の中から選べ。ここで、配列の要素番号は 1 から始まる。関数strToIntは、文字型の配列strを受け取り、strに格納されている数字文字から成る文字列（以下、数字文字列という）を数値に変換し、その値を返す関数である。配列strの要素数は1以上であり、数字文字列の最後には終端文字として"$"が格納されているものとする。変換後の数値は、整数型の変数に収まる範囲である。例えば、関数strToInt(["6", "7", "2", "$"])を呼び出したとき、戻り値は 672 となる。なお、関数 strToInt が使う関数 charToInt は、引数として1つの数字文字を取り、それを1桁の整数型の数値に変換し返す。</t>
@@ -240,13 +241,13 @@
   return val</t>
   </si>
   <si>
-    <t>ウ</t>
-  </si>
-  <si>
-    <t>ア:str[i] ＝ “$”　val ← val ＋ tmp　　イ:str[i] ＝ “$”　val ← val × 10 ＋ tmp　　ウ:str[i] ≠ “$”　val ← val × 10 ＋ tmp　　エ:str[i] ≠ “$”　val ← val ＋ tmp × 10</t>
-  </si>
-  <si>
-    <t>問10</t>
+    <t>ア str[i] ＝ “$”　val ← val ＋ tmp　　イ str[i] ＝ “$”　val ← val × 10 ＋ tmp　　ウ str[i] ≠ “$”　val ← val × 10 ＋ tmp　　エ str[i] ≠ “$”　val ← val ＋ tmp × 10</t>
+  </si>
+  <si>
+    <t>str[i] ≠ “$”　val ← val × 10 ＋ tmp</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問10</t>
   </si>
   <si>
     <t>次のプログラム中のaとbに入れる正しい答えの組み合わせを、解答群の中から選べ。ここで、配列の要素番号は1から始まるものとする。関数decToBinは、引数として与えられた10進整数nを6桁の2進数に変換し、上の桁から順に、整数型の配列binの要素bin[1]からbin[6]に格納する。nは0 &lt; n &lt; 64を満たす整数である。たとえば、関数decToBin(19)を呼び出すと、戻り値の配列binは{0, 1, 0, 0, 1, 1}となる。</t>
@@ -263,10 +264,13 @@
   return bin</t>
   </si>
   <si>
-    <t>ア: j ← j ÷ 2 の商/bin[k] ← j ÷ 2 の余り　　イ: j ← j ÷ 2 の余り/bin[k] ← j ÷ 2 の商　　ウ:bin[k] ← j ÷ 2 の商/j ← j ÷ 2 の余り　　エ:bin[k] ← j ÷ 2 の余り/j ← j ÷ 2 の商</t>
-  </si>
-  <si>
-    <t>問11</t>
+    <t>ア j ← j ÷ 2 の商/bin[k] ← j ÷ 2 の余り　　イ j ← j ÷ 2 の余り/bin[k] ← j ÷ 2 の商　　ウ bin[k] ← j ÷ 2 の商/j ← j ÷ 2 の余り　　エ bin[k] ← j ÷ 2 の余り/j ← j ÷ 2 の商</t>
+  </si>
+  <si>
+    <t>bin[k] ← j ÷ 2 の余り/j ← j ÷ 2 の商</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問11</t>
   </si>
   <si>
     <t>次のプログラム中の(a)と(b)に入れる正しい組み合わせを、回答群の中から選びなさい。手続きbitORは8ビット型の引数aとbを受け取り、aとbの論理和演算の結果を、上位ビットから順にそのビット値(1,0)を出力する。例えば、手続bitORをbitOR(01001011, 1001010)として呼び出すと、"11001011"と出力される。なお、演算子⋀はビット単位の論理積、演算子⋁はビット単位の論理和,演算子&gt;&gt;は論理右シフト,演算子&lt;&lt;は論理左シフトを表す。例えば、「value &gt;&gt; n」はvalueの値をnビットだけ右に論理シフトし、「value &lt;&lt; n」 はvalueの値をnビットだけ左に論理シフトする。</t>
@@ -324,10 +328,13 @@
     </r>
   </si>
   <si>
-    <t>ア:00000000/mask ← mask &lt;&lt; 1　　イ:00000000/mask ← mask &gt;&gt; 1　　ウ:00000001/mask ← mask &lt;&lt; 1　　エ:00000001/mask ← mask &gt;&gt; 1</t>
-  </si>
-  <si>
-    <t>問12</t>
+    <t>ア 00000000/mask ← mask &lt;&lt; 1　　イ 00000000/mask ← mask &gt;&gt; 1　　ウ 00000001/mask ← mask &lt;&lt; 1　　エ 00000001/mask ← mask &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>00000000/mask ← mask &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問12</t>
   </si>
   <si>
     <t>次の記述中の□に入れる最も適切な値を、選択肢の中から選びなさい。関数Gは、正の整数を引数として受け取り、処理結果として整数を返す関数である。この関数に G(4) を渡した場合、戻り値は □ である。</t>
@@ -341,11 +348,10 @@
 　endif</t>
   </si>
   <si>
-    <t xml:space="preserve">ア:9　　イ:10　　ウ:11　　エ:12
-</t>
-  </si>
-  <si>
-    <t>問13</t>
+    <t>ア 9　　イ 10　　ウ 11　　エ 12</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問13</t>
   </si>
   <si>
     <t>再帰的に定義された手続 display があります。この手続に対して display(3) を実行したとき、画面に表示される数字を順番に並べたものとして最も適切なものを選びなさい。</t>
@@ -360,10 +366,10 @@
 　x を出力する</t>
   </si>
   <si>
-    <t>ア:3210123　　イ:321123　　ウ:32100123　　エ:32112321</t>
-  </si>
-  <si>
-    <t>問14</t>
+    <t>ア 3210123　　イ 321123　　ウ 32100123　　エ 32112321</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問14</t>
   </si>
   <si>
     <t>次のプログラム中の (A) と (B) に入れる正しい組み合わせを、回答群の中から選びなさい。手続きbitANDは8ビット型の引数pとqを受け取り、pとqの論理積演算の結果を上位ビットから順にそのビット値(1,0)を出力する。例えば、bitAND(11001100, 10101010)と呼び出すと、"10001000"と出力される。なお、演算子⋀はビット単位の論理積、演算子⋁はビット単位の論理和、演算子&gt;&gt;は論理右シフト、演算子&lt;&lt;は論理左シフトを表す。</t>
@@ -421,7 +427,10 @@
     </r>
   </si>
   <si>
-    <t>問15</t>
+    <t>ア 00000000/mask ← mask &lt;&lt; 1　　イ 00000000/mask ← mask &gt;&gt; 1　　ウ 00000001/mask ← mask &lt;&lt; 1　              　エ 00000001/mask ← mask &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>基本情報科目B基礎 問15</t>
   </si>
   <si>
     <t>次のプログラム中の□に入れる正しい答えを、選択肢の中から選びなさい。配列のインデックスは1から始まる。手続insertStepは、昇順に並んでいるdata[1]～data[index-1]の中に、data[index]を正しい位置に挿入する処理を行う。配列dataはすべて異なる整数で構成され、data[1]は常に最小の値である。配列はグローバル変数である。</t>
@@ -438,10 +447,7 @@
   data[k + 1] ← val</t>
   </si>
   <si>
-    <t>ア:＝　　イ:≠　　ウ:＜　　エ:＞</t>
-  </si>
-  <si>
-    <t>解答群</t>
+    <t>ア ＝　　イ ≠　　ウ ＜　　エ ＞</t>
   </si>
   <si>
     <t>解答</t>
@@ -451,6 +457,9 @@
   </si>
   <si>
     <t>疑似言語応用</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問1</t>
   </si>
   <si>
     <t>次の記述中の□に入れる正しい答えを、回答群の中から選べ。ここで、配列の要素番号は1から始まる。
@@ -499,6 +508,9 @@
   </si>
   <si>
     <t>キ</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問2</t>
   </si>
   <si>
     <t>次の記述中のAとBに入れる適切な組合せを、選択肢の中から選べ。ただし、配列の添字は1から始まるものとする。
@@ -541,6 +553,12 @@
 エ        slist2        4</t>
   </si>
   <si>
+    <t>エ</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問3</t>
+  </si>
+  <si>
     <t>次のプログラム中の〔 a 〕および〔 b 〕に入る正しい答えの組を、解答群の中から選べ。ここで、配列の要素番号は1から始まるものとする。
 手続き hash は、引数として与えられた整数型の配列 data に格納されている複数の整数データを、ハッシュ法を用いてテーブルに登録する手続きである。
 ハッシュ法では、ハッシュ関数と呼ばれる計算式を用いて対象データを限定された範囲の値（ハッシュ値）に変換し、
@@ -580,6 +598,12 @@
 エ．〔a〕 hashTbl[h, 2] ← data[i]　　　〔b〕 hashTbl[2, k] ← idx</t>
   </si>
   <si>
+    <t>ア</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問4</t>
+  </si>
+  <si>
     <t>次の記述中の＿＿＿＿に入れる正しい答えを、解答群の中から選べ。ここで、配列の要素番号は1から始まる。
 手続き proc は、三つのスタック A、B、C を操作する手続きである。スタック A、B、C は、大域的にある整数型配列の配列 stack で実現され、
 stack[1] がスタック A、stack[2] がスタック B、stack[3] がスタック C である。
@@ -603,6 +627,9 @@
 ウ　{6, 5, 4, 4, 5, 6}
 エ　{6, 5, 4, 6, 5, 4}
 </t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問5</t>
   </si>
   <si>
     <t>次の記述中の□に入れる正しい答えを、解答群の中から選べ。ここで、配列の要素番号は1から始まる。
@@ -637,6 +664,12 @@
 </t>
   </si>
   <si>
+    <t>イ</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問6</t>
+  </si>
+  <si>
     <t xml:space="preserve">次のプログラム中の☆と★に入れる正しい答えの組み合わせを、解答群の中から選べ。
 関数binMultiplyは、16ビット型の引数mとnを受け取り、その積m × nの値を返す関数である。関数binMultiplyの処理条件は、次の通りである。
 (1)積は、シフト演算と加算の繰り返しによって求める。
@@ -668,58 +701,309 @@
 エ        y ∨ 1000000000000000        y ← y &lt;&lt; 15</t>
   </si>
   <si>
-    <t>次の記述中の□に入る答えを、解答群の中から選べ。ここで配列の要素番号は1から始まる。
-プログラムの作成段階では、ソフトウェア製品の品質特性のうち、信頼性、性能効率性、移植性を考慮することが大切である。この点に着目し、次のプログラムを検証する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for (i を 1 から rowMax まで 1 ずつ増やす)
-　for (j を 1 から colMax まで 1 ずつ増やす)
-　　if (data[i, j] &gt; compute(i))
-　　　data[i, j] ← compute(i)
-　　endif
-　endfor
-endfor
+    <t>基本情報科目B応用 問7</t>
+  </si>
+  <si>
+    <t>次の疑似言語は、整数配列 arr の中で偶数の要素だけを抽出して新しい配列 evenArr に格納し、最後に evenArr の要素を出力するプログラムである。空欄 (A) ～ (C) に入る正しい答えを、下の解答群から選びなさい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [3, 8, 5, 12, 7, 4]
+整数型配列 evenArr を空配列として初期化する
+i ← 1
+k ← 1
+繰り返し i ≦ 配列長(arr) の間
+    もし arr[i] % 2 = 0 ならば
+        evenArr[k] ← (A)
+        k ← (B)
+    i ← (C)
+繰り返し終了
+繰り返し m ← 1 から k - 1 まで
+    evenArr[m] を出力する
+繰り返し終了
 </t>
   </si>
   <si>
-    <t>ア　
-for (i を 1 から rowMax まで 1 ずつ増やす)
-　for (j を 1 から colMax まで 1 ずつ増やす)
-　　val ← compute(i)
-　　if (data[i, j] &gt; val)
-　　　data[i, j] ← val
-　　endif
-　endfor
-endfor
-イ　
-for (i を 1 から rowMax まで 1 ずつ増やす)
-　val ← compute(i)
-　for (j を 1 から colMax まで 1 ずつ増やす)
-　　if (data[i, j] &gt; val)
-　　　data[i, j] ← val
-　　endif
-　endfor
-endfor
-ウ　
-for (i を 1 から rowMax まで 1 ずつ増やす)
-　for (j を 1 から colMax まで 1 ずつ増やす)
-　　val ← compute(i)
-　　tmp ← data[i, j]
-　　if (tmp &gt; val)
-　　　tmp ← val
-　　endif
-　endfor
-endfor
-エ　
-for (i を 1 から rowMax まで 1 ずつ増やす)
-　val ← compute(i)
-　for (j を 1 から colMax まで 1 ずつ増やす)
-　　tmp ← data[i, j]
-　　if (tmp &gt; val)
-　　　tmp ← val
-　　endif
-　endfor
-endfor</t>
+    <t xml:space="preserve">ア. arr[i]
+イ. arr[k]
+ウ. k + 1
+エ. i + 1
+オ. i - 1
+カ. k - 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) ア
+(B) ウ
+(C) エ
+</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、整数型配列 list1 と list2 を昇順にマージして新しい配列 merged を作るプログラムである。空欄 (A) および (B) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 list1 ← [1, 3, 5, 7]
+整数型配列 list2 ← [2, 4, 6, 8]
+整数型配列 merged を空配列として初期化する
+i ← 1
+j ← 1
+k ← 1
+繰り返し i ≤ 配列長(list1) かつ j ≤ 配列長(list2) の間
+    もし list1[i] &lt; list2[j] ならば
+        merged[k] ← list1[i]
+        i ← i + 1
+    それ以外なら
+        (A)
+        j ← j + 1
+    k ← k + 1
+繰り返し終了
+繰り返し i ≤ 配列長(list1) の間
+    merged[k] ← list1[i]
+    i ← i + 1
+    k ← k + 1
+繰り返し終了
+繰り返し j ≤ 配列長(list2) の間
+    (B)
+    j ← j + 1
+    k ← k + 1
+繰り返し終了
+</t>
+  </si>
+  <si>
+    <t>ア. merged[k] ← list2[j]
+イ. merged[j] ← list2[k]
+ウ. merged[k] ← i
+エ. merged[j] ← k
+オ. merged[k] ← list1[i]
+カ. list2[k] ← merged[j]</t>
+  </si>
+  <si>
+    <t>(A) ア
+(B) ア</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、整数型配列 arr の中から最大値を探し、その値とインデックスを出力するプログラムである。空欄 (A) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [8, 12, 5, 20, 15]
+maxVal ← arr[1]
+maxIdx ← 1
+i ← 2
+繰り返し i ≤ 配列長(arr) の間
+    もし arr[i] &gt; maxVal ならば
+        maxVal ← arr[i]
+        maxIdx ← (A)
+    i ← i + 1
+繰り返し終了
+maxVal と maxIdx を出力する
+</t>
+  </si>
+  <si>
+    <t>ア. i
+イ. maxVal
+ウ. arr[i]
+エ. 1
+オ. maxIdx</t>
+  </si>
+  <si>
+    <t>(A) ア</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、整数型配列 arr の中で指定した値 key が存在するかを線形探索で調べるプログラムである。空欄 (A) および (B) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [5, 8, 12, 7, 9]
+整数型 key ← 7
+i ← 1
+found ← 偽
+繰り返し i ≤ 配列長(arr) の間
+    もし arr[i] = key ならば
+        found ← (A)
+        繰り返し終了
+    i ← i + 1
+繰り返し終了
+もし found = (B) ならば
+    "見つかった" を出力
+それ以外
+    "見つからなかった" を出力
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ア. 真
+イ. 偽
+ウ. i
+エ. key
+</t>
+  </si>
+  <si>
+    <t>(A) イ
+(B) ア</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、配列 arr の中から最大値を探し、その値とインデックスを出力するプログラムである。空欄 (A) および (B) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [12, 45, 7, 89, 34]
+maxVal ← arr[1]
+maxIdx ← 1
+i ← 2
+繰り返し i ≦ 配列長(arr) の間
+    もし arr[i] &gt; maxVal ならば
+        maxVal ← arr[i]
+        maxIdx ← (A)
+    i ← i + 1
+繰り返し終了
+maxVal と maxIdx を出力する
+</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、配列 arr の中で特定の値 key が存在するかどうかを線形探索で調べるプログラムである。空欄 (A) および (B) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [5, 8, 12, 7, 9]
+整数型 key ← 7
+i ← 1
+found ← 偽
+繰り返し i ≦ 配列長(arr) の間
+    もし arr[i] = key ならば
+        found ← (A)
+        繰り返し終了
+    i ← i + 1
+繰り返し終了
+もし found = (B) ならば
+    "見つかった" を出力
+それ以外
+    "見つからなかった" を出力
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ア. 真
+イ. 偽
+ウ. i
+エ. key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) ア
+(B) ア
+</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問13</t>
+  </si>
+  <si>
+    <t>次の疑似言語は、整数型配列 arr の要素をすべて合計するプログラムである。空欄 (A) に入る正しい答えを、下の解答群から選びなさい。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [2, 4, 6, 8]
+sum ← 0
+i ← 1
+繰り返し i ≤ 配列長(arr) の間
+    sum ← sum + arr[i]
+    i ← i + 1
+繰り返し終了
+出力 sum
+</t>
+  </si>
+  <si>
+    <t>ア. sum
+イ. arr[i]
+ウ. i
+エ. 0</t>
+  </si>
+  <si>
+    <t>(A) イ</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、配列 arr の要素を昇順にソートするバブルソートの一部である。空欄 (A) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [4, 3, 7, 1, 5]
+n ← 配列長(arr)
+i ← 1
+繰り返し i &lt; n の間
+    j ← 1
+    繰り返し j ≤ n - i の間
+        もし arr[j] &gt; arr[j + 1] ならば
+            temp ← arr[j]
+            arr[j] ← arr[j + 1]
+            arr[j + 1] ← (A)
+        j ← j + 1
+    繰り返し終了
+    i ← i + 1
+繰り返し終了
+arr を出力する
+</t>
+  </si>
+  <si>
+    <t>ア. arr[j]
+イ. arr[j + 1]
+ウ. temp
+エ. j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) ウ
+</t>
+  </si>
+  <si>
+    <t>基本情報科目B応用 問15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次の疑似言語は、整数配列 arr の中で重複している値があるかどうかを判定するプログラムの一部である。空欄 (A) と (B) に入る正しい答えを、下の解答群から選びなさい。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">整数型配列 arr ← [2, 5, 3, 2, 8]
+重複あり ← 偽
+i ← 1
+繰り返し i &lt; 配列長(arr) の間
+    j ← i + 1
+    繰り返し j ≤ 配列長(arr) の間
+        もし arr[i] = arr[j] ならば
+            重複あり ← (A)
+        j ← j + 1
+    繰り返し終了
+    i ← i + 1
+繰り返し終了
+もし 重複あり = (B) ならば
+    "重複があります" を出力
+それ以外
+    "重複はありません" を出力
+</t>
+  </si>
+  <si>
+    <t>ア. 真
+イ. 偽
+ウ. i
+エ. j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(A) ア
+(B) ア
+</t>
   </si>
 </sst>
 </file>
@@ -744,14 +1028,14 @@
       <name val="游ゴシック"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -768,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -778,11 +1062,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -790,14 +1083,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,39 +1110,11 @@
     <xdr:ext cx="1352550" cy="228600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="409575" cy="228600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1077,12 +1336,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.25"/>
-    <col customWidth="1" min="2" max="2" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="24.0"/>
     <col customWidth="1" min="3" max="3" width="223.75"/>
     <col customWidth="1" min="4" max="4" width="36.88"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="93.0"/>
-    <col customWidth="1" min="7" max="26" width="7.63"/>
+    <col customWidth="1" min="5" max="5" width="93.0"/>
+    <col customWidth="1" min="6" max="6" width="32.5"/>
+    <col customWidth="1" min="8" max="27" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
@@ -1098,274 +1357,276 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="1">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
+      <c r="F4" s="7">
+        <v>25.0</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="18.0" customHeight="1">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7">
+        <v>22.0</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
-      <c r="B9" s="1" t="s">
-        <v>39</v>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="J9" s="3"/>
+      <c r="E9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" ht="18.0" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" ht="18.0" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" ht="18.0" customHeight="1">
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" ht="18.0" customHeight="1">
-      <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14" ht="18.0" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7">
+        <v>321123.0</v>
       </c>
     </row>
     <row r="15" ht="18.0" customHeight="1">
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>55</v>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="18.0" customHeight="1">
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>70</v>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="18.0" customHeight="1"/>
@@ -2354,9 +2615,6 @@
     <row r="1000" ht="18.0" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$D$3:$D$4"/>
-  <mergeCells count="1">
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2375,7 +2633,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="22.38"/>
     <col customWidth="1" min="3" max="3" width="218.63"/>
     <col customWidth="1" min="4" max="4" width="93.75"/>
     <col customWidth="1" min="5" max="5" width="59.0"/>
@@ -2385,7 +2643,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.0" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2394,155 +2652,278 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>73</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="18.0" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="18.0" customHeight="1">
-      <c r="B3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>37</v>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="18.0" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" ht="18.0" customHeight="1">
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
+      <c r="B5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" ht="18.0" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="18.0" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" ht="18.0" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" ht="18.0" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>39</v>
+      <c r="B9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="10" ht="18.0" customHeight="1"/>
-    <row r="11" ht="18.0" customHeight="1"/>
-    <row r="12" ht="18.0" customHeight="1"/>
-    <row r="13" ht="18.0" customHeight="1"/>
-    <row r="14" ht="18.0" customHeight="1"/>
-    <row r="15" ht="18.0" customHeight="1"/>
-    <row r="16" ht="18.0" customHeight="1"/>
+    <row r="10" ht="18.0" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" ht="18.0" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" ht="18.0" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" ht="18.0" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" ht="18.0" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" ht="18.0" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" ht="18.0" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="17" ht="18.0" customHeight="1"/>
     <row r="18" ht="18.0" customHeight="1"/>
     <row r="19" ht="18.0" customHeight="1"/>
